--- a/thresholds/IGCSE/mandarin-chinese-foreign-language/mandarin-chinese-foreign-language-thresholds.xlsx
+++ b/thresholds/IGCSE/mandarin-chinese-foreign-language/mandarin-chinese-foreign-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,7 +575,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -616,7 +616,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -626,16 +626,16 @@
         <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
@@ -650,14 +650,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -739,20 +739,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>W 03,12,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" t="n">
         <v>89</v>
@@ -773,14 +773,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>W 03,12,21,41</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,17 +821,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" t="n">
         <v>114</v>
@@ -862,7 +862,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>X 03,11,21,41</t>
+          <t>Z 03,13,23,43</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -937,14 +937,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Y 03,12,22,42</t>
+          <t>X 03,11,21,41</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Z 03,13,23,43</t>
+          <t>Y 03,12,22,42</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1018,6 +1018,47 @@
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Z 03,13,23,43</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>164</v>
+      </c>
+      <c r="D15" t="n">
+        <v>139</v>
+      </c>
+      <c r="E15" t="n">
+        <v>114</v>
+      </c>
+      <c r="F15" t="n">
+        <v>89</v>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>60</v>
+      </c>
+      <c r="I15" t="n">
+        <v>46</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
